--- a/video-file/009 计算财务比率 + 使用配置文件/600734-2.xlsx
+++ b/video-file/009 计算财务比率 + 使用配置文件/600734-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\PythonWithOpenpyxl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\python-openpyxl-files\video-file\009 计算财务比率 + 使用配置文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="448">
   <si>
     <t>瑞安10-12地块资金运营计划表（万元）</t>
   </si>
@@ -1333,15 +1333,6 @@
     <t xml:space="preserve">合同负债 </t>
   </si>
   <si>
-    <t xml:space="preserve">卖出回购金融资产款 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">吸收存款及同业存放 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">代理买卖证券款 </t>
-  </si>
-  <si>
     <t xml:space="preserve">代理承销证券款 </t>
   </si>
   <si>
@@ -1393,9 +1384,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">保险合同准备金 </t>
-  </si>
-  <si>
     <t xml:space="preserve">长期借款 </t>
   </si>
   <si>
@@ -1403,18 +1391,6 @@
   </si>
   <si>
     <t xml:space="preserve">其中：优先股 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">永续债 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">租赁负债 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">长期应付款 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">长期应付职工薪酬 </t>
   </si>
   <si>
     <t xml:space="preserve">预计负债 </t>
@@ -2348,7 +2324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2992,6 +2968,12 @@
     <xf numFmtId="43" fontId="45" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3058,11 +3040,8 @@
     <xf numFmtId="43" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="43" fontId="44" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3385,42 +3364,42 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" style="3" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="35.26953125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="45.90625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.453125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.90625" style="2"/>
+    <col min="1" max="1" width="18.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="35.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45.875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="233" t="s">
+    <row r="1" spans="1:13" ht="21.75">
+      <c r="A1" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="33">
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="34.5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3984,7 +3963,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="19" customHeight="1">
+    <row r="17" spans="1:14" ht="18.95" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>54</v>
       </c>
@@ -4016,7 +3995,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="19" customHeight="1">
+    <row r="18" spans="1:14" ht="18.95" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>57</v>
       </c>
@@ -4054,7 +4033,7 @@
         <v>12156</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="19" customHeight="1">
+    <row r="19" spans="1:14" ht="18.95" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>61</v>
       </c>
@@ -4093,7 +4072,7 @@
         <v>26156</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="19" customHeight="1">
+    <row r="20" spans="1:14" ht="18.95" customHeight="1">
       <c r="A20" s="20" t="s">
         <v>64</v>
       </c>
@@ -4133,7 +4112,7 @@
         <v>30041</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19" customHeight="1">
+    <row r="21" spans="1:14" ht="18.95" customHeight="1">
       <c r="A21" s="27" t="s">
         <v>67</v>
       </c>
@@ -4177,7 +4156,7 @@
         <v>15756</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="19" customHeight="1">
+    <row r="22" spans="1:14" ht="18.95" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>71</v>
       </c>
@@ -4218,7 +4197,7 @@
         <v>18756</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="19" customHeight="1">
+    <row r="23" spans="1:14" ht="18.95" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>73</v>
       </c>
@@ -4256,7 +4235,7 @@
         <v>37756</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="19" customHeight="1">
+    <row r="24" spans="1:14" ht="18.95" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>76</v>
       </c>
@@ -4293,7 +4272,7 @@
       </c>
       <c r="N24" s="56"/>
     </row>
-    <row r="25" spans="1:14" ht="19" customHeight="1">
+    <row r="25" spans="1:14" ht="18.95" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>79</v>
       </c>
@@ -4337,7 +4316,7 @@
         <v>27756</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="19" customHeight="1">
+    <row r="26" spans="1:14" ht="18.95" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>82</v>
       </c>
@@ -4373,7 +4352,7 @@
         <v>26756</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="19" customHeight="1">
+    <row r="27" spans="1:14" ht="18.95" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>83</v>
       </c>
@@ -4411,7 +4390,7 @@
         <v>5756</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="19" customHeight="1">
+    <row r="28" spans="1:14" ht="18.95" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>85</v>
       </c>
@@ -4449,7 +4428,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="19" customHeight="1">
+    <row r="29" spans="1:14" ht="18.95" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>88</v>
       </c>
@@ -4486,7 +4465,7 @@
         <v>-1244</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="19" customHeight="1">
+    <row r="30" spans="1:14" ht="18.95" customHeight="1">
       <c r="A30" s="21" t="s">
         <v>90</v>
       </c>
@@ -4524,7 +4503,7 @@
         <v>-6244</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="19" customHeight="1">
+    <row r="31" spans="1:14" ht="18.95" customHeight="1">
       <c r="A31" s="21" t="s">
         <v>93</v>
       </c>
@@ -4564,7 +4543,7 @@
         <v>3756</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="19" customHeight="1">
+    <row r="32" spans="1:14" ht="18.95" customHeight="1">
       <c r="A32" s="33" t="s">
         <v>96</v>
       </c>
@@ -4979,21 +4958,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" style="206" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" style="206" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="25.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="206" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="206" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5022,7 +4999,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.5">
+    <row r="2" spans="1:8" ht="15">
       <c r="A2" s="209" t="s">
         <v>283</v>
       </c>
@@ -5038,7 +5015,7 @@
       <c r="E2" s="209" t="s">
         <v>331</v>
       </c>
-      <c r="F2" s="255" t="s">
+      <c r="F2" s="233" t="s">
         <v>284</v>
       </c>
       <c r="G2" s="215"/>
@@ -5070,7 +5047,7 @@
         <v>1041619581.4400001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.5">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="213" t="s">
         <v>286</v>
       </c>
@@ -5088,7 +5065,7 @@
       <c r="G4" s="215"/>
       <c r="H4" s="215"/>
     </row>
-    <row r="5" spans="1:8" ht="14.5">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="213" t="s">
         <v>287</v>
       </c>
@@ -5106,7 +5083,7 @@
       <c r="G5" s="215"/>
       <c r="H5" s="215"/>
     </row>
-    <row r="6" spans="1:8" ht="14.5">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="213" t="s">
         <v>288</v>
       </c>
@@ -5124,9 +5101,9 @@
       <c r="G6" s="215"/>
       <c r="H6" s="215"/>
     </row>
-    <row r="7" spans="1:8" ht="14" customHeight="1">
+    <row r="7" spans="1:8" ht="14.1" customHeight="1">
       <c r="A7" s="213" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B7" s="213" t="s">
         <v>284</v>
@@ -5134,7 +5111,7 @@
       <c r="C7" s="215"/>
       <c r="D7" s="215"/>
       <c r="E7" s="213" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F7" s="213" t="s">
         <v>284</v>
@@ -5142,7 +5119,7 @@
       <c r="G7" s="215"/>
       <c r="H7" s="215"/>
     </row>
-    <row r="8" spans="1:8" ht="14.5">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="213" t="s">
         <v>289</v>
       </c>
@@ -5212,7 +5189,7 @@
         <v>2145733057.4400001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.5">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" s="213" t="s">
         <v>292</v>
       </c>
@@ -5234,7 +5211,7 @@
         <v>270065963.33999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.5">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="213" t="s">
         <v>293</v>
       </c>
@@ -5256,7 +5233,7 @@
       <c r="G12" s="215"/>
       <c r="H12" s="215"/>
     </row>
-    <row r="13" spans="1:8" ht="14.5">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="213" t="s">
         <v>294</v>
       </c>
@@ -5274,7 +5251,7 @@
       <c r="G13" s="215"/>
       <c r="H13" s="215"/>
     </row>
-    <row r="14" spans="1:8" ht="14.5">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" s="213" t="s">
         <v>295</v>
       </c>
@@ -5289,10 +5266,14 @@
       <c r="F14" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G14" s="215"/>
-      <c r="H14" s="215"/>
-    </row>
-    <row r="15" spans="1:8" ht="14.5">
+      <c r="G14" s="214">
+        <v>35745466.630000003</v>
+      </c>
+      <c r="H14" s="214">
+        <v>28742985.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
       <c r="A15" s="213" t="s">
         <v>296</v>
       </c>
@@ -5307,10 +5288,14 @@
       <c r="F15" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
-    </row>
-    <row r="16" spans="1:8" ht="14.5">
+      <c r="G15" s="214">
+        <v>32404706.449999999</v>
+      </c>
+      <c r="H15" s="214">
+        <v>185342945.19999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="213" t="s">
         <v>297</v>
       </c>
@@ -5329,10 +5314,14 @@
       <c r="F16" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G16" s="215"/>
-      <c r="H16" s="215"/>
-    </row>
-    <row r="17" spans="1:8" ht="14.5">
+      <c r="G16" s="214">
+        <v>261293127.62</v>
+      </c>
+      <c r="H16" s="214">
+        <v>128131691.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" s="213" t="s">
         <v>298</v>
       </c>
@@ -5348,13 +5337,13 @@
         <v>284</v>
       </c>
       <c r="G17" s="214">
-        <v>35745466.630000003</v>
+        <v>34053494.630000003</v>
       </c>
       <c r="H17" s="214">
-        <v>28742985.23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.5">
+        <v>7516092.2599999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="216" t="s">
         <v>299</v>
       </c>
@@ -5363,20 +5352,20 @@
       </c>
       <c r="C18" s="215"/>
       <c r="D18" s="215"/>
-      <c r="E18" s="213" t="s">
+      <c r="E18" s="216" t="s">
         <v>346</v>
       </c>
       <c r="F18" s="213" t="s">
         <v>284</v>
       </c>
       <c r="G18" s="214">
-        <v>32404706.449999999</v>
+        <v>240900</v>
       </c>
       <c r="H18" s="214">
-        <v>185342945.19999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.5">
+        <v>240900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" s="213" t="s">
         <v>300</v>
       </c>
@@ -5391,14 +5380,10 @@
       <c r="F19" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G19" s="214">
-        <v>261293127.62</v>
-      </c>
-      <c r="H19" s="214">
-        <v>128131691.98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19" s="215"/>
+      <c r="H19" s="215"/>
+    </row>
+    <row r="20" spans="1:8" ht="15">
       <c r="A20" s="213" t="s">
         <v>301</v>
       </c>
@@ -5417,14 +5402,10 @@
       <c r="F20" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G20" s="214">
-        <v>34053494.630000003</v>
-      </c>
-      <c r="H20" s="214">
-        <v>7516092.2599999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.5">
+      <c r="G20" s="215"/>
+      <c r="H20" s="215"/>
+    </row>
+    <row r="21" spans="1:8" ht="15">
       <c r="A21" s="213" t="s">
         <v>302</v>
       </c>
@@ -5433,20 +5414,16 @@
       </c>
       <c r="C21" s="215"/>
       <c r="D21" s="215"/>
-      <c r="E21" s="216" t="s">
+      <c r="E21" s="213" t="s">
         <v>349</v>
       </c>
       <c r="F21" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G21" s="214">
-        <v>240900</v>
-      </c>
-      <c r="H21" s="214">
-        <v>240900</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.5">
+      <c r="G21" s="215"/>
+      <c r="H21" s="215"/>
+    </row>
+    <row r="22" spans="1:8" ht="15">
       <c r="A22" s="213" t="s">
         <v>303</v>
       </c>
@@ -5461,10 +5438,14 @@
       <c r="F22" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G22" s="215"/>
-      <c r="H22" s="215"/>
-    </row>
-    <row r="23" spans="1:8" ht="14.5">
+      <c r="G22" s="214">
+        <v>29432656.32</v>
+      </c>
+      <c r="H22" s="214">
+        <v>595970703.59000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15">
       <c r="A23" s="213" t="s">
         <v>304</v>
       </c>
@@ -5483,10 +5464,12 @@
       <c r="F23" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G23" s="215"/>
+      <c r="G23" s="214">
+        <v>40097314.840000004</v>
+      </c>
       <c r="H23" s="215"/>
     </row>
-    <row r="24" spans="1:8" ht="14.5">
+    <row r="24" spans="1:8">
       <c r="A24" s="213" t="s">
         <v>305</v>
       </c>
@@ -5499,42 +5482,42 @@
       <c r="D24" s="214">
         <v>6437498.0899999999</v>
       </c>
-      <c r="E24" s="213" t="s">
+      <c r="E24" s="222" t="s">
         <v>352</v>
       </c>
       <c r="F24" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G24" s="215"/>
-      <c r="H24" s="215"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="G24" s="257">
+        <v>3009071180.7199998</v>
+      </c>
+      <c r="H24" s="214">
+        <v>4583407497.1300001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15">
       <c r="A25" s="222" t="s">
         <v>306</v>
       </c>
       <c r="B25" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="214">
+      <c r="C25" s="257">
         <v>1591924559.6600001</v>
       </c>
       <c r="D25" s="214">
         <v>5327209547.8299999</v>
       </c>
-      <c r="E25" s="213" t="s">
+      <c r="E25" s="209" t="s">
         <v>353</v>
       </c>
-      <c r="F25" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G25" s="214">
-        <v>29432656.32</v>
-      </c>
-      <c r="H25" s="214">
-        <v>595970703.59000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14.5">
+      <c r="F25" s="217" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="215"/>
+      <c r="H25" s="215"/>
+    </row>
+    <row r="26" spans="1:8" ht="15">
       <c r="A26" s="209" t="s">
         <v>307</v>
       </c>
@@ -5549,12 +5532,12 @@
       <c r="F26" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G26" s="214">
-        <v>40097314.840000004</v>
-      </c>
-      <c r="H26" s="215"/>
-    </row>
-    <row r="27" spans="1:8" ht="14.5">
+      <c r="G26" s="215"/>
+      <c r="H26" s="214">
+        <v>64300000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15">
       <c r="A27" s="213" t="s">
         <v>308</v>
       </c>
@@ -5563,20 +5546,16 @@
       </c>
       <c r="C27" s="215"/>
       <c r="D27" s="215"/>
-      <c r="E27" s="222" t="s">
+      <c r="E27" s="213" t="s">
         <v>355</v>
       </c>
       <c r="F27" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G27" s="214">
-        <v>3009071180.7199998</v>
-      </c>
-      <c r="H27" s="214">
-        <v>4583407497.1300001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.5">
+      <c r="G27" s="215"/>
+      <c r="H27" s="215"/>
+    </row>
+    <row r="28" spans="1:8" ht="15">
       <c r="A28" s="213" t="s">
         <v>309</v>
       </c>
@@ -5585,16 +5564,16 @@
       </c>
       <c r="C28" s="215"/>
       <c r="D28" s="215"/>
-      <c r="E28" s="209" t="s">
+      <c r="E28" s="213" t="s">
         <v>356</v>
       </c>
-      <c r="F28" s="217" t="s">
+      <c r="F28" s="213" t="s">
         <v>284</v>
       </c>
       <c r="G28" s="215"/>
       <c r="H28" s="215"/>
     </row>
-    <row r="29" spans="1:8" ht="14.5">
+    <row r="29" spans="1:8" ht="15">
       <c r="A29" s="213" t="s">
         <v>310</v>
       </c>
@@ -5611,10 +5590,14 @@
       <c r="F29" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G29" s="215"/>
-      <c r="H29" s="215"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.5">
+      <c r="G29" s="214">
+        <v>8363282.1200000001</v>
+      </c>
+      <c r="H29" s="214">
+        <v>234002.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15">
       <c r="A30" s="213" t="s">
         <v>311</v>
       </c>
@@ -5629,12 +5612,14 @@
       <c r="F30" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G30" s="215"/>
+      <c r="G30" s="214">
+        <v>67628600.290000007</v>
+      </c>
       <c r="H30" s="214">
-        <v>64300000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="14.5">
+        <v>73273840.209999993</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15">
       <c r="A31" s="213" t="s">
         <v>312</v>
       </c>
@@ -5649,10 +5634,14 @@
       <c r="F31" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G31" s="215"/>
-      <c r="H31" s="215"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.5">
+      <c r="G31" s="214">
+        <v>1455288.83</v>
+      </c>
+      <c r="H31" s="214">
+        <v>5180420.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15">
       <c r="A32" s="213" t="s">
         <v>313</v>
       </c>
@@ -5674,7 +5663,7 @@
       <c r="G32" s="215"/>
       <c r="H32" s="215"/>
     </row>
-    <row r="33" spans="1:8" ht="14.5">
+    <row r="33" spans="1:8">
       <c r="A33" s="213" t="s">
         <v>314</v>
       </c>
@@ -5687,16 +5676,20 @@
       <c r="D33" s="214">
         <v>53566293.409999996</v>
       </c>
-      <c r="E33" s="216" t="s">
+      <c r="E33" s="222" t="s">
         <v>361</v>
       </c>
       <c r="F33" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G33" s="215"/>
-      <c r="H33" s="215"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.5">
+      <c r="G33" s="214">
+        <v>77447171.239999995</v>
+      </c>
+      <c r="H33" s="214">
+        <v>142988263.43000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15">
       <c r="A34" s="213" t="s">
         <v>315</v>
       </c>
@@ -5705,16 +5698,20 @@
       </c>
       <c r="C34" s="215"/>
       <c r="D34" s="215"/>
-      <c r="E34" s="213" t="s">
+      <c r="E34" s="222" t="s">
         <v>362</v>
       </c>
       <c r="F34" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G34" s="215"/>
-      <c r="H34" s="215"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.5">
+      <c r="G34" s="214">
+        <v>3086518351.96</v>
+      </c>
+      <c r="H34" s="214">
+        <v>4726395760.5600004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15">
       <c r="A35" s="213" t="s">
         <v>316</v>
       </c>
@@ -5725,16 +5722,16 @@
         <v>16113352.41</v>
       </c>
       <c r="D35" s="215"/>
-      <c r="E35" s="213" t="s">
+      <c r="E35" s="209" t="s">
         <v>363</v>
       </c>
-      <c r="F35" s="213" t="s">
+      <c r="F35" s="217" t="s">
         <v>284</v>
       </c>
       <c r="G35" s="215"/>
       <c r="H35" s="215"/>
     </row>
-    <row r="36" spans="1:8" ht="14.5">
+    <row r="36" spans="1:8">
       <c r="A36" s="213" t="s">
         <v>317</v>
       </c>
@@ -5753,10 +5750,14 @@
       <c r="F36" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G36" s="215"/>
-      <c r="H36" s="215"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="G36" s="214">
+        <v>622372316</v>
+      </c>
+      <c r="H36" s="214">
+        <v>623515807</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15">
       <c r="A37" s="213" t="s">
         <v>318</v>
       </c>
@@ -5775,14 +5776,10 @@
       <c r="F37" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G37" s="214">
-        <v>8363282.1200000001</v>
-      </c>
-      <c r="H37" s="214">
-        <v>234002.42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.5">
+      <c r="G37" s="215"/>
+      <c r="H37" s="215"/>
+    </row>
+    <row r="38" spans="1:8" ht="15">
       <c r="A38" s="213" t="s">
         <v>319</v>
       </c>
@@ -5792,19 +5789,15 @@
       <c r="C38" s="215"/>
       <c r="D38" s="215"/>
       <c r="E38" s="213" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="F38" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G38" s="214">
-        <v>67628600.290000007</v>
-      </c>
-      <c r="H38" s="214">
-        <v>73273840.209999993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.5">
+      <c r="G38" s="215"/>
+      <c r="H38" s="215"/>
+    </row>
+    <row r="39" spans="1:8" ht="15">
       <c r="A39" s="213" t="s">
         <v>320</v>
       </c>
@@ -5814,19 +5807,19 @@
       <c r="C39" s="215"/>
       <c r="D39" s="215"/>
       <c r="E39" s="213" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F39" s="213" t="s">
         <v>284</v>
       </c>
       <c r="G39" s="214">
-        <v>1455288.83</v>
+        <v>2078156372.6800001</v>
       </c>
       <c r="H39" s="214">
-        <v>5180420.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.5">
+        <v>2091171752.8900001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15">
       <c r="A40" s="213" t="s">
         <v>321</v>
       </c>
@@ -5836,7 +5829,7 @@
       <c r="C40" s="215"/>
       <c r="D40" s="215"/>
       <c r="E40" s="213" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F40" s="213" t="s">
         <v>284</v>
@@ -5844,7 +5837,7 @@
       <c r="G40" s="215"/>
       <c r="H40" s="215"/>
     </row>
-    <row r="41" spans="1:8" ht="14.5">
+    <row r="41" spans="1:8" ht="15">
       <c r="A41" s="213" t="s">
         <v>322</v>
       </c>
@@ -5853,20 +5846,20 @@
       </c>
       <c r="C41" s="215"/>
       <c r="D41" s="215"/>
-      <c r="E41" s="222" t="s">
-        <v>369</v>
+      <c r="E41" s="213" t="s">
+        <v>368</v>
       </c>
       <c r="F41" s="213" t="s">
         <v>284</v>
       </c>
       <c r="G41" s="214">
-        <v>77447171.239999995</v>
+        <v>-15751238.83</v>
       </c>
       <c r="H41" s="214">
-        <v>142988263.43000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>1508416.92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15">
       <c r="A42" s="213" t="s">
         <v>323</v>
       </c>
@@ -5879,20 +5872,16 @@
       <c r="D42" s="214">
         <v>63405749.630000003</v>
       </c>
-      <c r="E42" s="222" t="s">
-        <v>370</v>
+      <c r="E42" s="213" t="s">
+        <v>369</v>
       </c>
       <c r="F42" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G42" s="214">
-        <v>3086518351.96</v>
-      </c>
-      <c r="H42" s="214">
-        <v>4726395760.5600004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.5">
+      <c r="G42" s="215"/>
+      <c r="H42" s="215"/>
+    </row>
+    <row r="43" spans="1:8" ht="15">
       <c r="A43" s="218" t="s">
         <v>324</v>
       </c>
@@ -5901,16 +5890,20 @@
       </c>
       <c r="C43" s="219"/>
       <c r="D43" s="219"/>
-      <c r="E43" s="209" t="s">
-        <v>371</v>
-      </c>
-      <c r="F43" s="217" t="s">
-        <v>284</v>
-      </c>
-      <c r="G43" s="215"/>
-      <c r="H43" s="215"/>
-    </row>
-    <row r="44" spans="1:8" ht="14.5">
+      <c r="E43" s="213" t="s">
+        <v>370</v>
+      </c>
+      <c r="F43" s="213" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" s="214">
+        <v>19062040.02</v>
+      </c>
+      <c r="H43" s="214">
+        <v>19062040.02</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15">
       <c r="A44" s="218" t="s">
         <v>325</v>
       </c>
@@ -5922,19 +5915,15 @@
         <v>1028261563.3200001</v>
       </c>
       <c r="E44" s="213" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F44" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G44" s="214">
-        <v>622372316</v>
-      </c>
-      <c r="H44" s="214">
-        <v>623515807</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="14.5">
+      <c r="G44" s="215"/>
+      <c r="H44" s="215"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="218" t="s">
         <v>326</v>
       </c>
@@ -5948,15 +5937,19 @@
         <v>30540805.57</v>
       </c>
       <c r="E45" s="213" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F45" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G45" s="215"/>
-      <c r="H45" s="215"/>
-    </row>
-    <row r="46" spans="1:8" ht="14.5">
+      <c r="G45" s="214">
+        <v>-3172094908.6500001</v>
+      </c>
+      <c r="H45" s="214">
+        <v>-125066537.89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="218" t="s">
         <v>327</v>
       </c>
@@ -5970,15 +5963,19 @@
         <v>29391914.899999999</v>
       </c>
       <c r="E46" s="213" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="F46" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G46" s="215"/>
-      <c r="H46" s="215"/>
-    </row>
-    <row r="47" spans="1:8" ht="14.5">
+      <c r="G46" s="234">
+        <v>-468255418.77999997</v>
+      </c>
+      <c r="H46" s="234">
+        <v>2610191478.9400001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15">
       <c r="A47" s="218" t="s">
         <v>328</v>
       </c>
@@ -5991,13 +5988,15 @@
       <c r="D47" s="221">
         <v>79278074.200000003</v>
       </c>
-      <c r="E47" s="216" t="s">
-        <v>361</v>
+      <c r="E47" s="213" t="s">
+        <v>373</v>
       </c>
       <c r="F47" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G47" s="215"/>
+      <c r="G47" s="214">
+        <v>-89106.31</v>
+      </c>
       <c r="H47" s="215"/>
     </row>
     <row r="48" spans="1:8">
@@ -6013,20 +6012,20 @@
       <c r="D48" s="220">
         <v>2009377691.6700001</v>
       </c>
-      <c r="E48" s="213" t="s">
-        <v>374</v>
+      <c r="E48" s="209" t="s">
+        <v>435</v>
       </c>
       <c r="F48" s="213" t="s">
         <v>284</v>
       </c>
       <c r="G48" s="214">
-        <v>2078156372.6800001</v>
+        <v>-468344525.08999997</v>
       </c>
       <c r="H48" s="214">
-        <v>2091171752.8900001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="14.5">
+        <v>2610191478.9400001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="224" t="s">
         <v>330</v>
       </c>
@@ -6039,133 +6038,21 @@
       <c r="D49" s="220">
         <v>7336587239.5</v>
       </c>
-      <c r="E49" s="213" t="s">
-        <v>375</v>
+      <c r="E49" s="209" t="s">
+        <v>436</v>
       </c>
       <c r="F49" s="213" t="s">
         <v>284</v>
       </c>
-      <c r="G49" s="215"/>
-      <c r="H49" s="215"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="E50" s="213" t="s">
-        <v>376</v>
-      </c>
-      <c r="F50" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G50" s="214">
-        <v>-15751238.83</v>
-      </c>
-      <c r="H50" s="214">
-        <v>1508416.92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="14.5">
-      <c r="E51" s="213" t="s">
-        <v>377</v>
-      </c>
-      <c r="F51" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G51" s="215"/>
-      <c r="H51" s="215"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="E52" s="213" t="s">
-        <v>378</v>
-      </c>
-      <c r="F52" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G52" s="214">
-        <v>19062040.02</v>
-      </c>
-      <c r="H52" s="214">
-        <v>19062040.02</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="14.5">
-      <c r="E53" s="213" t="s">
-        <v>379</v>
-      </c>
-      <c r="F53" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G53" s="215"/>
-      <c r="H53" s="215"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="E54" s="213" t="s">
-        <v>380</v>
-      </c>
-      <c r="F54" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G54" s="214">
-        <v>-3172094908.6500001</v>
-      </c>
-      <c r="H54" s="214">
-        <v>-125066537.89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="E55" s="213" t="s">
-        <v>442</v>
-      </c>
-      <c r="F55" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G55" s="256">
-        <v>-468255418.77999997</v>
-      </c>
-      <c r="H55" s="256">
-        <v>2610191478.9400001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="14.5">
-      <c r="E56" s="213" t="s">
-        <v>381</v>
-      </c>
-      <c r="F56" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G56" s="214">
-        <v>-89106.31</v>
-      </c>
-      <c r="H56" s="215"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="E57" s="209" t="s">
-        <v>443</v>
-      </c>
-      <c r="F57" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G57" s="214">
-        <v>-468344525.08999997</v>
-      </c>
-      <c r="H57" s="214">
-        <v>2610191478.9400001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="E58" s="209" t="s">
-        <v>444</v>
-      </c>
-      <c r="F58" s="213" t="s">
-        <v>284</v>
-      </c>
-      <c r="G58" s="214">
+      <c r="G49" s="214">
         <v>2618173826.8699999</v>
       </c>
-      <c r="H58" s="214">
+      <c r="H49" s="214">
         <v>7336587239.5</v>
       </c>
     </row>
-    <row r="102" spans="7:7">
-      <c r="G102" s="225"/>
+    <row r="93" spans="7:7">
+      <c r="G93" s="225"/>
     </row>
   </sheetData>
   <phoneticPr fontId="38" type="noConversion"/>
@@ -6182,53 +6069,53 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="25.7265625" style="62" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="63" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" style="63" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="63" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="64" customWidth="1"/>
-    <col min="7" max="7" width="2.453125" style="65" customWidth="1"/>
-    <col min="8" max="8" width="2.453125" style="62" customWidth="1"/>
+    <col min="1" max="1" width="2.125" style="62" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="62" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="63" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="63" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="63" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="64" customWidth="1"/>
+    <col min="7" max="7" width="2.5" style="65" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="62" customWidth="1"/>
     <col min="9" max="9" width="15" style="66" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" style="66" customWidth="1"/>
-    <col min="11" max="11" width="18.36328125" style="66" customWidth="1"/>
-    <col min="12" max="12" width="15.36328125" style="66" customWidth="1"/>
-    <col min="13" max="13" width="20.08984375" style="66" customWidth="1"/>
-    <col min="14" max="14" width="18.453125" style="66" customWidth="1"/>
-    <col min="15" max="15" width="16.26953125" style="66" customWidth="1"/>
-    <col min="16" max="16" width="17.36328125" style="66" customWidth="1"/>
-    <col min="17" max="17" width="18.90625" style="66" customWidth="1"/>
-    <col min="18" max="18" width="17.6328125" style="66" customWidth="1"/>
-    <col min="19" max="20" width="16.26953125" style="66" customWidth="1"/>
-    <col min="21" max="21" width="20.90625" style="66" customWidth="1"/>
-    <col min="22" max="26" width="17.90625" style="66" customWidth="1"/>
-    <col min="27" max="27" width="14.453125" style="66" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="66" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="66" customWidth="1"/>
+    <col min="12" max="12" width="15.375" style="66" customWidth="1"/>
+    <col min="13" max="13" width="20.125" style="66" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="66" customWidth="1"/>
+    <col min="15" max="15" width="16.25" style="66" customWidth="1"/>
+    <col min="16" max="16" width="17.375" style="66" customWidth="1"/>
+    <col min="17" max="17" width="18.875" style="66" customWidth="1"/>
+    <col min="18" max="18" width="17.625" style="66" customWidth="1"/>
+    <col min="19" max="20" width="16.25" style="66" customWidth="1"/>
+    <col min="21" max="21" width="20.875" style="66" customWidth="1"/>
+    <col min="22" max="26" width="17.875" style="66" customWidth="1"/>
+    <col min="27" max="27" width="14.5" style="66" customWidth="1"/>
     <col min="28" max="29" width="9" style="66"/>
     <col min="30" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="17.149999999999999" customHeight="1">
-      <c r="B1" s="234" t="s">
+    <row r="1" spans="2:29" ht="17.100000000000001" customHeight="1">
+      <c r="B1" s="236" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
+      <c r="C1" s="237"/>
+      <c r="D1" s="237"/>
+      <c r="E1" s="237"/>
       <c r="J1" s="147" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="2:29" ht="17.149999999999999" customHeight="1">
-      <c r="B2" s="236" t="s">
+    <row r="2" spans="2:29" ht="17.100000000000001" customHeight="1">
+      <c r="B2" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="238"/>
-      <c r="I2" s="248" t="s">
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="240"/>
+      <c r="I2" s="250" t="s">
         <v>122</v>
       </c>
       <c r="J2" s="148" t="s">
@@ -6266,7 +6153,7 @@
       <c r="AB2" s="192"/>
       <c r="AC2" s="192"/>
     </row>
-    <row r="3" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="3" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B3" s="67" t="s">
         <v>123</v>
       </c>
@@ -6280,7 +6167,7 @@
         <f>C8/120</f>
         <v>523.95291666666662</v>
       </c>
-      <c r="I3" s="249"/>
+      <c r="I3" s="251"/>
       <c r="J3" s="150" t="s">
         <v>244</v>
       </c>
@@ -6314,7 +6201,7 @@
       <c r="AB3" s="192"/>
       <c r="AC3" s="192"/>
     </row>
-    <row r="4" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B4" s="67" t="s">
         <v>125</v>
       </c>
@@ -6331,35 +6218,35 @@
       <c r="I4" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="239">
+      <c r="J4" s="241">
         <v>2020</v>
       </c>
-      <c r="K4" s="239"/>
-      <c r="L4" s="239"/>
-      <c r="M4" s="239"/>
-      <c r="N4" s="240">
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="242">
         <v>2021</v>
       </c>
-      <c r="O4" s="240"/>
-      <c r="P4" s="240"/>
-      <c r="Q4" s="240"/>
-      <c r="R4" s="239">
+      <c r="O4" s="242"/>
+      <c r="P4" s="242"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="241">
         <v>2022</v>
       </c>
-      <c r="S4" s="239"/>
-      <c r="T4" s="239"/>
-      <c r="U4" s="239"/>
-      <c r="V4" s="250">
+      <c r="S4" s="241"/>
+      <c r="T4" s="241"/>
+      <c r="U4" s="241"/>
+      <c r="V4" s="252">
         <v>2023</v>
       </c>
-      <c r="W4" s="250"/>
-      <c r="X4" s="250"/>
-      <c r="Y4" s="250"/>
+      <c r="W4" s="252"/>
+      <c r="X4" s="252"/>
+      <c r="Y4" s="252"/>
       <c r="Z4" s="194" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="5" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B5" s="67" t="s">
         <v>129</v>
       </c>
@@ -6426,7 +6313,7 @@
       </c>
       <c r="Z5" s="195"/>
     </row>
-    <row r="6" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="6" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B6" s="67" t="s">
         <v>136</v>
       </c>
@@ -6488,7 +6375,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="7" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B7" s="67" t="s">
         <v>139</v>
       </c>
@@ -6575,7 +6462,7 @@
         <v>175585.87500000006</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="8" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B8" s="72" t="s">
         <v>142</v>
       </c>
@@ -6612,7 +6499,7 @@
       <c r="Z8" s="198"/>
       <c r="AA8" s="199"/>
     </row>
-    <row r="9" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="9" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B9" s="75" t="s">
         <v>145</v>
       </c>
@@ -6647,7 +6534,7 @@
       </c>
       <c r="AA9" s="199"/>
     </row>
-    <row r="10" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="10" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B10" s="79" t="s">
         <v>147</v>
       </c>
@@ -6700,7 +6587,7 @@
         <v>66470.362125000029</v>
       </c>
     </row>
-    <row r="11" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="11" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B11" s="82" t="s">
         <v>152</v>
       </c>
@@ -6784,7 +6671,7 @@
       </c>
       <c r="AA11" s="199"/>
     </row>
-    <row r="12" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="12" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B12" s="85"/>
       <c r="C12" s="86" t="s">
         <v>154</v>
@@ -6861,7 +6748,7 @@
       </c>
       <c r="AA12" s="199"/>
     </row>
-    <row r="13" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="13" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B13" s="88" t="s">
         <v>156</v>
       </c>
@@ -6930,7 +6817,7 @@
       </c>
       <c r="AA13" s="199"/>
     </row>
-    <row r="14" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="14" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B14" s="91" t="s">
         <v>159</v>
       </c>
@@ -7020,7 +6907,7 @@
       </c>
       <c r="AA14" s="199"/>
     </row>
-    <row r="15" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="15" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B15" s="91" t="s">
         <v>160</v>
       </c>
@@ -7062,7 +6949,7 @@
       </c>
       <c r="AA15" s="199"/>
     </row>
-    <row r="16" spans="2:29" ht="17.149999999999999" customHeight="1">
+    <row r="16" spans="2:29" ht="17.100000000000001" customHeight="1">
       <c r="B16" s="85" t="s">
         <v>163</v>
       </c>
@@ -7709,34 +7596,34 @@
       <c r="I25" s="173" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="251">
+      <c r="J25" s="253">
         <f>M24</f>
         <v>73857.622543749996</v>
       </c>
-      <c r="K25" s="251"/>
-      <c r="L25" s="251"/>
-      <c r="M25" s="251"/>
-      <c r="N25" s="251">
+      <c r="K25" s="253"/>
+      <c r="L25" s="253"/>
+      <c r="M25" s="253"/>
+      <c r="N25" s="253">
         <f>Q24</f>
         <v>14526.513518749984</v>
       </c>
-      <c r="O25" s="251"/>
-      <c r="P25" s="251"/>
-      <c r="Q25" s="251"/>
-      <c r="R25" s="251">
+      <c r="O25" s="253"/>
+      <c r="P25" s="253"/>
+      <c r="Q25" s="253"/>
+      <c r="R25" s="253">
         <f>U24</f>
         <v>-9797.8202562500119</v>
       </c>
-      <c r="S25" s="251"/>
-      <c r="T25" s="251"/>
-      <c r="U25" s="251"/>
-      <c r="V25" s="251">
+      <c r="S25" s="253"/>
+      <c r="T25" s="253"/>
+      <c r="U25" s="253"/>
+      <c r="V25" s="253">
         <f>Y24</f>
         <v>-2547.200875000015</v>
       </c>
-      <c r="W25" s="251"/>
-      <c r="X25" s="251"/>
-      <c r="Y25" s="251"/>
+      <c r="W25" s="253"/>
+      <c r="X25" s="253"/>
+      <c r="Y25" s="253"/>
       <c r="Z25" s="203"/>
       <c r="AA25" s="199"/>
     </row>
@@ -7916,7 +7803,7 @@
       <c r="Z31" s="66"/>
       <c r="AA31" s="66"/>
     </row>
-    <row r="32" spans="2:27" s="62" customFormat="1" ht="16">
+    <row r="32" spans="2:27" s="62" customFormat="1" ht="16.5">
       <c r="B32" s="91" t="s">
         <v>188</v>
       </c>
@@ -7942,22 +7829,22 @@
       <c r="K32" s="175"/>
       <c r="L32" s="175"/>
       <c r="M32" s="175"/>
-      <c r="N32" s="241">
+      <c r="N32" s="243">
         <f>J38</f>
         <v>0.13464359540011772</v>
       </c>
-      <c r="O32" s="241"/>
-      <c r="P32" s="241"/>
-      <c r="Q32" s="241"/>
-      <c r="R32" s="241"/>
-      <c r="S32" s="241"/>
-      <c r="T32" s="241"/>
-      <c r="U32" s="241"/>
-      <c r="V32" s="241"/>
-      <c r="W32" s="241"/>
-      <c r="X32" s="241"/>
-      <c r="Y32" s="241"/>
-      <c r="Z32" s="242"/>
+      <c r="O32" s="243"/>
+      <c r="P32" s="243"/>
+      <c r="Q32" s="243"/>
+      <c r="R32" s="243"/>
+      <c r="S32" s="243"/>
+      <c r="T32" s="243"/>
+      <c r="U32" s="243"/>
+      <c r="V32" s="243"/>
+      <c r="W32" s="243"/>
+      <c r="X32" s="243"/>
+      <c r="Y32" s="243"/>
+      <c r="Z32" s="244"/>
       <c r="AA32" s="66"/>
     </row>
     <row r="33" spans="2:26" s="62" customFormat="1">
@@ -7986,22 +7873,22 @@
       <c r="K33" s="177"/>
       <c r="L33" s="177"/>
       <c r="M33" s="177"/>
-      <c r="N33" s="243">
+      <c r="N33" s="245">
         <f>D55/J16</f>
         <v>0.37643646079829907</v>
       </c>
-      <c r="O33" s="243"/>
-      <c r="P33" s="243"/>
-      <c r="Q33" s="243"/>
-      <c r="R33" s="243"/>
-      <c r="S33" s="243"/>
-      <c r="T33" s="243"/>
-      <c r="U33" s="243"/>
-      <c r="V33" s="243"/>
-      <c r="W33" s="243"/>
-      <c r="X33" s="243"/>
-      <c r="Y33" s="243"/>
-      <c r="Z33" s="244"/>
+      <c r="O33" s="245"/>
+      <c r="P33" s="245"/>
+      <c r="Q33" s="245"/>
+      <c r="R33" s="245"/>
+      <c r="S33" s="245"/>
+      <c r="T33" s="245"/>
+      <c r="U33" s="245"/>
+      <c r="V33" s="245"/>
+      <c r="W33" s="245"/>
+      <c r="X33" s="245"/>
+      <c r="Y33" s="245"/>
+      <c r="Z33" s="246"/>
     </row>
     <row r="34" spans="2:26" s="62" customFormat="1">
       <c r="B34" s="91" t="s">
@@ -8336,7 +8223,7 @@
       <c r="Z41" s="66"/>
     </row>
     <row r="42" spans="2:26" s="62" customFormat="1">
-      <c r="B42" s="245" t="s">
+      <c r="B42" s="247" t="s">
         <v>209</v>
       </c>
       <c r="C42" s="119" t="s">
@@ -8386,7 +8273,7 @@
       <c r="Z42" s="66"/>
     </row>
     <row r="43" spans="2:26" s="62" customFormat="1">
-      <c r="B43" s="246"/>
+      <c r="B43" s="248"/>
       <c r="C43" s="122" t="s">
         <v>211</v>
       </c>
@@ -8428,7 +8315,7 @@
       <c r="Z43" s="66"/>
     </row>
     <row r="44" spans="2:26" s="62" customFormat="1">
-      <c r="B44" s="246"/>
+      <c r="B44" s="248"/>
       <c r="C44" s="125" t="s">
         <v>212</v>
       </c>
@@ -8628,7 +8515,7 @@
       <c r="J50" s="66"/>
     </row>
     <row r="51" spans="2:10" s="62" customFormat="1">
-      <c r="B51" s="247" t="s">
+      <c r="B51" s="249" t="s">
         <v>220</v>
       </c>
       <c r="C51" s="129" t="s">
@@ -8645,7 +8532,7 @@
       <c r="J51" s="66"/>
     </row>
     <row r="52" spans="2:10" s="62" customFormat="1">
-      <c r="B52" s="247"/>
+      <c r="B52" s="249"/>
       <c r="C52" s="129" t="s">
         <v>222</v>
       </c>
@@ -8884,42 +8771,42 @@
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.90625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="46.453125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="45.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="46.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="45.625" style="2" customWidth="1"/>
     <col min="9" max="9" width="51" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.90625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.90625" style="2"/>
+    <col min="10" max="10" width="12.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5">
-      <c r="A1" s="233" t="s">
+    <row r="1" spans="1:13" ht="21.75">
+      <c r="A1" s="235" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="33">
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="34.5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -9476,7 +9363,7 @@
         <v>-1290</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="19" customHeight="1">
+    <row r="17" spans="1:14" ht="18.95" customHeight="1">
       <c r="A17" s="21" t="s">
         <v>54</v>
       </c>
@@ -9508,7 +9395,7 @@
         <v>-1290</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="19" customHeight="1">
+    <row r="18" spans="1:14" ht="18.95" customHeight="1">
       <c r="A18" s="21" t="s">
         <v>57</v>
       </c>
@@ -9532,7 +9419,7 @@
       <c r="L18" s="52"/>
       <c r="M18" s="51"/>
     </row>
-    <row r="19" spans="1:14" ht="19" customHeight="1">
+    <row r="19" spans="1:14" ht="18.95" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>269</v>
       </c>
@@ -9574,7 +9461,7 @@
         <v>12555.5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="19" customHeight="1">
+    <row r="20" spans="1:14" ht="18.95" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>271</v>
       </c>
@@ -9615,7 +9502,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="19" customHeight="1">
+    <row r="21" spans="1:14" ht="18.95" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>64</v>
       </c>
@@ -9655,7 +9542,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="19" customHeight="1">
+    <row r="22" spans="1:14" ht="18.95" customHeight="1">
       <c r="A22" s="27" t="s">
         <v>67</v>
       </c>
@@ -9699,7 +9586,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="19" customHeight="1">
+    <row r="23" spans="1:14" ht="18.95" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>71</v>
       </c>
@@ -9740,7 +9627,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="19" customHeight="1">
+    <row r="24" spans="1:14" ht="18.95" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>73</v>
       </c>
@@ -9784,7 +9671,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="19" customHeight="1">
+    <row r="25" spans="1:14" ht="18.95" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>76</v>
       </c>
@@ -9821,7 +9708,7 @@
       </c>
       <c r="N25" s="56"/>
     </row>
-    <row r="26" spans="1:14" ht="19" customHeight="1">
+    <row r="26" spans="1:14" ht="18.95" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>79</v>
       </c>
@@ -9859,7 +9746,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="19" customHeight="1">
+    <row r="27" spans="1:14" ht="18.95" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>82</v>
       </c>
@@ -9897,7 +9784,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="19" customHeight="1">
+    <row r="28" spans="1:14" ht="18.95" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>83</v>
       </c>
@@ -9935,7 +9822,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="19" customHeight="1">
+    <row r="29" spans="1:14" ht="18.95" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>85</v>
       </c>
@@ -9973,7 +9860,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="19" customHeight="1">
+    <row r="30" spans="1:14" ht="18.95" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>88</v>
       </c>
@@ -10008,7 +9895,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="19" customHeight="1">
+    <row r="31" spans="1:14" ht="18.95" customHeight="1">
       <c r="A31" s="21" t="s">
         <v>90</v>
       </c>
@@ -10046,7 +9933,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="19" customHeight="1">
+    <row r="32" spans="1:14" ht="18.95" customHeight="1">
       <c r="A32" s="21" t="s">
         <v>93</v>
       </c>
@@ -10086,7 +9973,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="19" customHeight="1">
+    <row r="33" spans="1:13" ht="18.95" customHeight="1">
       <c r="A33" s="33" t="s">
         <v>96</v>
       </c>
@@ -10500,12 +10387,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="54.453125" style="206" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="207" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="207" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" style="207" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.5" style="206" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="207" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="207" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="207" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10516,15 +10403,15 @@
         <v>280</v>
       </c>
       <c r="C1" s="226" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D1" s="226" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="210" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B2" s="231" t="s">
         <v>284</v>
@@ -10538,7 +10425,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="227" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B3" s="231" t="s">
         <v>284</v>
@@ -10550,9 +10437,9 @@
         <v>6759565820.3599997</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.5">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="229" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B4" s="231" t="s">
         <v>284</v>
@@ -10560,9 +10447,9 @@
       <c r="C4" s="230"/>
       <c r="D4" s="230"/>
     </row>
-    <row r="5" spans="1:4" ht="14.5">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="229" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B5" s="231" t="s">
         <v>284</v>
@@ -10570,9 +10457,9 @@
       <c r="C5" s="230"/>
       <c r="D5" s="230"/>
     </row>
-    <row r="6" spans="1:4" ht="14.5">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="229" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B6" s="231" t="s">
         <v>284</v>
@@ -10582,7 +10469,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="210" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B7" s="231" t="s">
         <v>284</v>
@@ -10596,7 +10483,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="227" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B8" s="231" t="s">
         <v>284</v>
@@ -10608,9 +10495,9 @@
         <v>6116617137.5100002</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.5">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="229" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B9" s="231" t="s">
         <v>284</v>
@@ -10618,9 +10505,9 @@
       <c r="C9" s="230"/>
       <c r="D9" s="230"/>
     </row>
-    <row r="10" spans="1:4" ht="14.5">
+    <row r="10" spans="1:4" ht="15">
       <c r="A10" s="229" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B10" s="231" t="s">
         <v>284</v>
@@ -10628,9 +10515,9 @@
       <c r="C10" s="230"/>
       <c r="D10" s="230"/>
     </row>
-    <row r="11" spans="1:4" ht="14.5">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="229" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B11" s="231" t="s">
         <v>284</v>
@@ -10638,9 +10525,9 @@
       <c r="C11" s="230"/>
       <c r="D11" s="230"/>
     </row>
-    <row r="12" spans="1:4" ht="14.5">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="229" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B12" s="231" t="s">
         <v>284</v>
@@ -10648,9 +10535,9 @@
       <c r="C12" s="230"/>
       <c r="D12" s="230"/>
     </row>
-    <row r="13" spans="1:4" ht="14.5">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="229" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B13" s="231" t="s">
         <v>284</v>
@@ -10658,9 +10545,9 @@
       <c r="C13" s="230"/>
       <c r="D13" s="230"/>
     </row>
-    <row r="14" spans="1:4" ht="14.5">
+    <row r="14" spans="1:4" ht="15">
       <c r="A14" s="229" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B14" s="231" t="s">
         <v>284</v>
@@ -10668,9 +10555,9 @@
       <c r="C14" s="230"/>
       <c r="D14" s="230"/>
     </row>
-    <row r="15" spans="1:4" ht="14.5">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="229" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B15" s="231" t="s">
         <v>284</v>
@@ -10680,7 +10567,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="229" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B16" s="231" t="s">
         <v>284</v>
@@ -10694,7 +10581,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="229" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B17" s="231" t="s">
         <v>284</v>
@@ -10708,7 +10595,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="229" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B18" s="231" t="s">
         <v>284</v>
@@ -10722,7 +10609,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="229" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B19" s="231" t="s">
         <v>284</v>
@@ -10736,7 +10623,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="229" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B20" s="231" t="s">
         <v>284</v>
@@ -10750,7 +10637,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="229" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B21" s="231" t="s">
         <v>284</v>
@@ -10764,7 +10651,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="229" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B22" s="231" t="s">
         <v>284</v>
@@ -10778,7 +10665,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="227" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B23" s="231" t="s">
         <v>284</v>
@@ -10792,7 +10679,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="229" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B24" s="231" t="s">
         <v>284</v>
@@ -10806,7 +10693,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="227" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B25" s="231" t="s">
         <v>284</v>
@@ -10820,25 +10707,25 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="227" t="s">
-        <v>406</v>
-      </c>
-      <c r="B26" s="253" t="s">
-        <v>284</v>
-      </c>
-      <c r="C26" s="254"/>
-      <c r="D26" s="254"/>
+        <v>398</v>
+      </c>
+      <c r="B26" s="255" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="256"/>
+      <c r="D26" s="256"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="227" t="s">
-        <v>407</v>
-      </c>
-      <c r="B27" s="253"/>
-      <c r="C27" s="254"/>
-      <c r="D27" s="254"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.5">
+        <v>399</v>
+      </c>
+      <c r="B27" s="255"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="256"/>
+    </row>
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" s="229" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B28" s="231" t="s">
         <v>284</v>
@@ -10846,9 +10733,9 @@
       <c r="C28" s="230"/>
       <c r="D28" s="230"/>
     </row>
-    <row r="29" spans="1:4" ht="14.5">
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" s="229" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B29" s="231" t="s">
         <v>284</v>
@@ -10856,9 +10743,9 @@
       <c r="C29" s="230"/>
       <c r="D29" s="230"/>
     </row>
-    <row r="30" spans="1:4" ht="14" customHeight="1">
+    <row r="30" spans="1:4" ht="14.1" customHeight="1">
       <c r="A30" s="227" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B30" s="231" t="s">
         <v>284</v>
@@ -10868,9 +10755,9 @@
       </c>
       <c r="D30" s="230"/>
     </row>
-    <row r="31" spans="1:4" ht="14.5">
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" s="229" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B31" s="231" t="s">
         <v>284</v>
@@ -10882,7 +10769,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="229" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B32" s="231" t="s">
         <v>284</v>
@@ -10896,7 +10783,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="229" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B33" s="231" t="s">
         <v>284</v>
@@ -10910,7 +10797,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="210" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B34" s="231" t="s">
         <v>284</v>
@@ -10924,7 +10811,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="227" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B35" s="231" t="s">
         <v>284</v>
@@ -10938,7 +10825,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="227" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B36" s="231" t="s">
         <v>284</v>
@@ -10952,7 +10839,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="210" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B37" s="231" t="s">
         <v>284</v>
@@ -10966,7 +10853,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="227" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B38" s="231" t="s">
         <v>284</v>
@@ -10980,7 +10867,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="210" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B39" s="231" t="s">
         <v>284</v>
@@ -10993,16 +10880,16 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="252" t="s">
-        <v>419</v>
-      </c>
-      <c r="B40" s="252"/>
-      <c r="C40" s="252"/>
-      <c r="D40" s="252"/>
+      <c r="A40" s="254" t="s">
+        <v>411</v>
+      </c>
+      <c r="B40" s="254"/>
+      <c r="C40" s="254"/>
+      <c r="D40" s="254"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="227" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B41" s="231" t="s">
         <v>284</v>
@@ -11014,9 +10901,9 @@
         <v>-267155730.38</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14" customHeight="1">
+    <row r="42" spans="1:4" ht="14.1" customHeight="1">
       <c r="A42" s="227" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B42" s="231" t="s">
         <v>284</v>
@@ -11027,16 +10914,16 @@
       <c r="D42" s="230"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="252" t="s">
-        <v>420</v>
-      </c>
-      <c r="B43" s="252"/>
-      <c r="C43" s="252"/>
-      <c r="D43" s="252"/>
+      <c r="A43" s="254" t="s">
+        <v>412</v>
+      </c>
+      <c r="B43" s="254"/>
+      <c r="C43" s="254"/>
+      <c r="D43" s="254"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="227" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B44" s="231" t="s">
         <v>284</v>
@@ -11048,9 +10935,9 @@
         <v>-267155730.38</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.5">
+    <row r="45" spans="1:4" ht="15">
       <c r="A45" s="229" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B45" s="231" t="s">
         <v>284</v>
@@ -11062,7 +10949,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="210" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B46" s="231" t="s">
         <v>284</v>
@@ -11076,7 +10963,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="227" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B47" s="231" t="s">
         <v>284</v>
@@ -11088,9 +10975,9 @@
         <v>2563206.29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.5">
+    <row r="48" spans="1:4" ht="15">
       <c r="A48" s="229" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B48" s="231" t="s">
         <v>284</v>
@@ -11098,9 +10985,9 @@
       <c r="C48" s="230"/>
       <c r="D48" s="230"/>
     </row>
-    <row r="49" spans="1:4" ht="14.5">
+    <row r="49" spans="1:4" ht="15">
       <c r="A49" s="227" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B49" s="231" t="s">
         <v>284</v>
@@ -11108,9 +10995,9 @@
       <c r="C49" s="230"/>
       <c r="D49" s="230"/>
     </row>
-    <row r="50" spans="1:4" ht="14.5">
+    <row r="50" spans="1:4" ht="15">
       <c r="A50" s="227" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B50" s="231" t="s">
         <v>284</v>
@@ -11118,9 +11005,9 @@
       <c r="C50" s="230"/>
       <c r="D50" s="230"/>
     </row>
-    <row r="51" spans="1:4" ht="14.5">
+    <row r="51" spans="1:4" ht="15">
       <c r="A51" s="227" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B51" s="231" t="s">
         <v>284</v>
@@ -11128,9 +11015,9 @@
       <c r="C51" s="230"/>
       <c r="D51" s="230"/>
     </row>
-    <row r="52" spans="1:4" ht="14.5">
+    <row r="52" spans="1:4" ht="15">
       <c r="A52" s="227" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B52" s="231" t="s">
         <v>284</v>
@@ -11140,7 +11027,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="229" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B53" s="231" t="s">
         <v>284</v>
@@ -11152,9 +11039,9 @@
         <v>2563206.29</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.5">
+    <row r="54" spans="1:4" ht="15">
       <c r="A54" s="227" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B54" s="231" t="s">
         <v>284</v>
@@ -11162,9 +11049,9 @@
       <c r="C54" s="230"/>
       <c r="D54" s="230"/>
     </row>
-    <row r="55" spans="1:4" ht="14.5">
+    <row r="55" spans="1:4" ht="15">
       <c r="A55" s="227" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B55" s="231" t="s">
         <v>284</v>
@@ -11172,9 +11059,9 @@
       <c r="C55" s="230"/>
       <c r="D55" s="230"/>
     </row>
-    <row r="56" spans="1:4" ht="14.5">
+    <row r="56" spans="1:4" ht="15">
       <c r="A56" s="227" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B56" s="231" t="s">
         <v>284</v>
@@ -11182,9 +11069,9 @@
       <c r="C56" s="230"/>
       <c r="D56" s="230"/>
     </row>
-    <row r="57" spans="1:4" ht="14" customHeight="1">
+    <row r="57" spans="1:4" ht="14.1" customHeight="1">
       <c r="A57" s="227" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B57" s="231" t="s">
         <v>284</v>
@@ -11192,9 +11079,9 @@
       <c r="C57" s="230"/>
       <c r="D57" s="230"/>
     </row>
-    <row r="58" spans="1:4" ht="14" customHeight="1">
+    <row r="58" spans="1:4" ht="14.1" customHeight="1">
       <c r="A58" s="227" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B58" s="231" t="s">
         <v>284</v>
@@ -11202,9 +11089,9 @@
       <c r="C58" s="230"/>
       <c r="D58" s="230"/>
     </row>
-    <row r="59" spans="1:4" ht="14.5">
+    <row r="59" spans="1:4" ht="15">
       <c r="A59" s="227" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B59" s="231" t="s">
         <v>284</v>
@@ -11212,9 +11099,9 @@
       <c r="C59" s="230"/>
       <c r="D59" s="230"/>
     </row>
-    <row r="60" spans="1:4" ht="14.5">
+    <row r="60" spans="1:4" ht="15">
       <c r="A60" s="227" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B60" s="231" t="s">
         <v>284</v>
@@ -11224,7 +11111,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="227" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B61" s="231" t="s">
         <v>284</v>
@@ -11236,9 +11123,9 @@
         <v>2563206.29</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.5">
+    <row r="62" spans="1:4" ht="15">
       <c r="A62" s="227" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B62" s="231" t="s">
         <v>284</v>
@@ -11246,9 +11133,9 @@
       <c r="C62" s="230"/>
       <c r="D62" s="230"/>
     </row>
-    <row r="63" spans="1:4" ht="14" customHeight="1">
+    <row r="63" spans="1:4" ht="14.1" customHeight="1">
       <c r="A63" s="227" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B63" s="231" t="s">
         <v>284</v>
@@ -11258,7 +11145,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="210" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B64" s="231" t="s">
         <v>284</v>
@@ -11272,7 +11159,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="227" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B65" s="231" t="s">
         <v>284</v>
@@ -11284,9 +11171,9 @@
         <v>-264592524.09</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.5">
+    <row r="66" spans="1:4" ht="15">
       <c r="A66" s="227" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B66" s="231" t="s">
         <v>284</v>
@@ -11296,9 +11183,9 @@
       </c>
       <c r="D66" s="230"/>
     </row>
-    <row r="67" spans="1:4" ht="14.5">
+    <row r="67" spans="1:4" ht="15">
       <c r="A67" s="210" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B67" s="232" t="s">
         <v>284</v>
@@ -11308,7 +11195,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="227" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B68" s="231" t="s">
         <v>284</v>
@@ -11322,7 +11209,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="227" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B69" s="231" t="s">
         <v>284</v>
